--- a/portfolios/sml_equity/profit_reports/trend/MACD_overall.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/MACD_overall.xlsx
@@ -474,37 +474,37 @@
         <v>71626</v>
       </c>
       <c r="D2">
-        <v>1258.046252529137</v>
+        <v>1258.046613957397</v>
       </c>
       <c r="E2">
-        <v>-616.6918837598031</v>
+        <v>-616.6933502821792</v>
       </c>
       <c r="F2">
-        <v>0.1281048036255718</v>
+        <v>0.1281048394772225</v>
       </c>
       <c r="G2">
-        <v>-0.06122216809339071</v>
+        <v>-0.06122231454775452</v>
       </c>
       <c r="H2">
-        <v>0.01147308748719313</v>
+        <v>0.01147301103227104</v>
       </c>
       <c r="I2">
-        <v>34598788.03705636</v>
+        <v>34598797.97705635</v>
       </c>
       <c r="J2">
-        <v>-27210912.67901715</v>
+        <v>-27210977.38785048</v>
       </c>
       <c r="K2">
         <v>0.3839667159969843</v>
       </c>
       <c r="L2">
-        <v>2.039991583575206</v>
+        <v>2.039987318465093</v>
       </c>
       <c r="M2">
-        <v>1.271504136784656</v>
+        <v>1.27150147838881</v>
       </c>
       <c r="N2">
-        <v>7387875.358039204</v>
+        <v>7387820.589205876</v>
       </c>
     </row>
   </sheetData>

--- a/portfolios/sml_equity/profit_reports/trend/MACD_overall.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/MACD_overall.xlsx
@@ -465,46 +465,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>27502</v>
+        <v>27289</v>
       </c>
       <c r="B2">
-        <v>44124</v>
+        <v>43793</v>
       </c>
       <c r="C2">
-        <v>71626</v>
+        <v>71082</v>
       </c>
       <c r="D2">
-        <v>1258.046613957397</v>
+        <v>1256.962779281228</v>
       </c>
       <c r="E2">
-        <v>-616.6933502821792</v>
+        <v>-617.2640911946989</v>
       </c>
       <c r="F2">
-        <v>0.1281048394772225</v>
+        <v>0.1280079258180017</v>
       </c>
       <c r="G2">
-        <v>-0.06122231454775452</v>
+        <v>-0.06128177334911047</v>
       </c>
       <c r="H2">
-        <v>0.01147301103227104</v>
+        <v>0.01138819373920035</v>
       </c>
       <c r="I2">
-        <v>34598797.97705635</v>
+        <v>34301257.2838055</v>
       </c>
       <c r="J2">
-        <v>-27210977.38785048</v>
+        <v>-27031846.34568904</v>
       </c>
       <c r="K2">
-        <v>0.3839667159969843</v>
+        <v>0.3839087251343519</v>
       </c>
       <c r="L2">
-        <v>2.039987318465093</v>
+        <v>2.036345216272679</v>
       </c>
       <c r="M2">
-        <v>1.27150147838881</v>
+        <v>1.268920252251869</v>
       </c>
       <c r="N2">
-        <v>7387820.589205876</v>
+        <v>7269410.938116461</v>
       </c>
     </row>
   </sheetData>
